--- a/menteeStatus.xlsx
+++ b/menteeStatus.xlsx
@@ -378,19 +378,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dd2</t>
+          <t>hhh</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gfdasd</t>
+          <t>lllaa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>test test</t>
+          <t>test t test</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -402,7 +402,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>thisnameisverybig verybignamehere123</t>
+          <t>thisnameisverybig b verybignamehere123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -414,7 +414,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>now now</t>
+          <t>now n now</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -426,7 +426,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>roman bhosale</t>
+          <t>roman r bhosale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/menteeStatus.xlsx
+++ b/menteeStatus.xlsx
@@ -376,16 +376,6 @@
           <t>Status</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>hhh</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>lllaa</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -419,7 +409,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>changed</t>
+          <t>ch</t>
         </is>
       </c>
     </row>
